--- a/excel_params/1.4_V2av.xlsx
+++ b/excel_params/1.4_V2av.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\毕设\CODE\dp_crystmorph\regionIII_double_peak\region_III_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41579AF-5D78-4C3D-8FBE-E3FFAC79980A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81C0BD0-454A-4CE8-9E99-53C97DADD98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="8325" xr2:uid="{5E2137EA-76BA-47DA-8227-43E1C948586D}"/>
+    <workbookView xWindow="0" yWindow="1875" windowWidth="19785" windowHeight="7590" xr2:uid="{9E68A6FA-ECD1-41D7-86CA-3F6E1049B08E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>V2Av_w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>V2Av_n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nw/(nw+nn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -409,7 +405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF3EDE5-9115-42E0-9BAD-85E8E1F9267F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8DD6E5-5B9D-4B36-94B5-FB1A0DE7D5AB}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -457,7 +453,7 @@
         <v>7984379899.5206814</v>
       </c>
       <c r="D3">
-        <v>0.10636871890259098</v>
+        <v>0.77725263236307451</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -471,7 +467,7 @@
         <v>7365481443.8914309</v>
       </c>
       <c r="D4">
-        <v>0.15824049807603796</v>
+        <v>0.4777616443641392</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -485,7 +481,7 @@
         <v>8163886755.4385281</v>
       </c>
       <c r="D5">
-        <v>0.10681792783430959</v>
+        <v>0.77669024334788117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -499,7 +495,7 @@
         <v>19472096075.425224</v>
       </c>
       <c r="D6">
-        <v>0.19690351127081909</v>
+        <v>0.47286594662761378</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -513,7 +509,7 @@
         <v>77771696993.844696</v>
       </c>
       <c r="D7">
-        <v>0.36006841242932447</v>
+        <v>0.56228307349809226</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -527,7 +523,7 @@
         <v>31116169064.712063</v>
       </c>
       <c r="D8">
-        <v>6.8441491226190629E-2</v>
+        <v>0.93426753612669655</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -541,7 +537,7 @@
         <v>71494932518.978745</v>
       </c>
       <c r="D9">
-        <v>0.13494934814238396</v>
+        <v>0.90628328958940652</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -555,7 +551,7 @@
         <v>18671027510.35463</v>
       </c>
       <c r="D10">
-        <v>0.12725509276957836</v>
+        <v>0.81304593126760805</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -569,7 +565,7 @@
         <v>38786271266.709564</v>
       </c>
       <c r="D11">
-        <v>0.1714462393101821</v>
+        <v>0.75915466719591074</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,7 +579,7 @@
         <v>15586985030.175634</v>
       </c>
       <c r="D12">
-        <v>0.11244917600419183</v>
+        <v>0.81433475453992454</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -597,7 +593,7 @@
         <v>14936345374.20295</v>
       </c>
       <c r="D13">
-        <v>6.9010307302511578E-2</v>
+        <v>0.93121755476315393</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -611,7 +607,7 @@
         <v>8819158323.9994373</v>
       </c>
       <c r="D14">
-        <v>0.1002102698974857</v>
+        <v>0.89260362014860117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -625,7 +621,7 @@
         <v>9912838580.2899418</v>
       </c>
       <c r="D15">
-        <v>6.7661285341601582E-2</v>
+        <v>0.94725669779471688</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,7 +635,7 @@
         <v>9896333950.0187378</v>
       </c>
       <c r="D16">
-        <v>7.2651510152525828E-2</v>
+        <v>0.94195668428204804</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,7 +649,7 @@
         <v>9896333950.0187378</v>
       </c>
       <c r="D17">
-        <v>7.2651510152525828E-2</v>
+        <v>0.94195668428204804</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -667,7 +663,7 @@
         <v>34480306894.336006</v>
       </c>
       <c r="D18">
-        <v>0.27310668058262966</v>
+        <v>0.45057370368128929</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -681,7 +677,7 @@
         <v>34410666053.507202</v>
       </c>
       <c r="D19">
-        <v>0.27249441526057433</v>
+        <v>0.45125517887617206</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -695,7 +691,7 @@
         <v>28235253071.196369</v>
       </c>
       <c r="D20">
-        <v>0.19036050573841617</v>
+        <v>0.56104415016269205</v>
       </c>
     </row>
   </sheetData>
